--- a/Files/Vaccine_August 3, 2006.xlsx
+++ b/Files/Vaccine_August 3, 2006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="170">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP</t>
+    <t xml:space="preserve">DTaP/</t>
   </si>
   <si>
     <t xml:space="preserve">Tripedia</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">$70.72</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP </t>
+    <t xml:space="preserve">DTaP-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">TriHIBit</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">$26.34</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B^</t>
+    <t xml:space="preserve">Hepatitis B-Hib</t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -175,7 +175,7 @@
     <t xml:space="preserve">$28.74</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only^</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only</t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -193,13 +193,13 @@
     <t xml:space="preserve">$78.42</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
   </si>
   <si>
-    <t xml:space="preserve">1 dose vials 10 pack - 1 dose vials 5 pack - 1 dose T-L syringes, No Needle </t>
+    <t xml:space="preserve">1 dose vials </t>
   </si>
   <si>
     <t xml:space="preserve">$9.10</t>
@@ -208,6 +208,12 @@
     <t xml:space="preserve">$21.37</t>
   </si>
   <si>
+    <t xml:space="preserve">10 pack - 1 dose vials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 pack - 1 dose T-L syringes, No Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
   </si>
   <si>
@@ -271,7 +277,7 @@
     <t xml:space="preserve">$82.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella ( MMR)</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella ( MMR)/</t>
   </si>
   <si>
     <t xml:space="preserve">MMRII</t>
@@ -283,7 +289,7 @@
     <t xml:space="preserve">$42.85</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal7-valent (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
@@ -316,13 +322,13 @@
     <t xml:space="preserve">$63.25</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids^</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids</t>
   </si>
   <si>
     <t xml:space="preserve">DECAVAC</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose syringes No Needle 10 pack - 1 dose vials </t>
+    <t xml:space="preserve">10 pack - 1 dose syringes No Needle </t>
   </si>
   <si>
     <t xml:space="preserve">$16.62</t>
@@ -331,21 +337,21 @@
     <t xml:space="preserve">$18.30</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis/</t>
   </si>
   <si>
     <t xml:space="preserve">BOOSTRIX</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose TL syringes, No Needle </t>
-  </si>
-  <si>
     <t xml:space="preserve">$30.75</t>
   </si>
   <si>
     <t xml:space="preserve">$36.25</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose TL syringes, No Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">ADACEL</t>
   </si>
   <si>
@@ -382,7 +388,7 @@
     <t xml:space="preserve">$54.98</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult^</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult</t>
   </si>
   <si>
     <t xml:space="preserve">Hepatitis B-Adult</t>
@@ -436,7 +442,7 @@
     <t xml:space="preserve">Massachusetts Biologic Labs (Henry Schein Inc.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+    <t xml:space="preserve">Influenza   (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -448,7 +454,7 @@
     <t xml:space="preserve">$11.198</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 6-35 months)</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone
@@ -464,7 +470,7 @@
     <t xml:space="preserve">$13.613</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 36 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">$13.55</t>
@@ -476,7 +482,7 @@
     <t xml:space="preserve">No-Preservative</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza   (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluvirin</t>
@@ -491,7 +497,7 @@
     <t xml:space="preserve">Chiron</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 18 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 18 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluarix</t>
@@ -503,7 +509,7 @@
     <t xml:space="preserve">$12.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza Live, Intranasal (Age 5-49 years)</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 5-49 years)</t>
   </si>
   <si>
     <t xml:space="preserve">FluMist</t>
@@ -1180,7 +1186,7 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
         <v>62</v>
@@ -1209,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
@@ -1232,7 +1238,7 @@
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1241,10 +1247,10 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G21" s="1">
         <v>39172</v>
@@ -1258,10 +1264,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1270,10 +1276,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G22" s="1">
         <v>39172</v>
@@ -1287,10 +1293,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1299,10 +1305,10 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G23" s="1">
         <v>39172</v>
@@ -1316,10 +1322,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1328,10 +1334,10 @@
         <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G24" s="1">
         <v>39172</v>
@@ -1345,10 +1351,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1357,10 +1363,10 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G25" s="1">
         <v>39172</v>
@@ -1374,10 +1380,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -1386,10 +1392,10 @@
         <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G26" s="1">
         <v>39172</v>
@@ -1403,10 +1409,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1415,10 +1421,10 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G27" s="1">
         <v>39172</v>
@@ -1432,10 +1438,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1444,10 +1450,10 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G28" s="1">
         <v>39172</v>
@@ -1461,28 +1467,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G29" s="1">
         <v>39172</v>
       </c>
       <c r="H29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1490,22 +1496,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G30" s="1">
         <v>39172</v>
@@ -1519,22 +1525,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G31" s="1">
         <v>39172</v>
@@ -1548,22 +1554,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G32" s="1">
         <v>39172</v>
@@ -1577,22 +1583,22 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G33" s="1">
         <v>39172</v>
@@ -1606,22 +1612,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G34" s="1">
         <v>39172</v>
@@ -1635,10 +1641,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1647,10 +1653,10 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G35" s="1">
         <v>39172</v>
@@ -1664,10 +1670,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1676,10 +1682,10 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G36" s="1">
         <v>39172</v>
@@ -1738,7 +1744,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
@@ -1750,10 +1756,10 @@
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1">
         <v>39263</v>
@@ -1767,7 +1773,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -1779,10 +1785,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G3" s="1">
         <v>39263</v>
@@ -1796,7 +1802,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -1808,10 +1814,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1">
         <v>39263</v>
@@ -1825,7 +1831,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>50</v>
@@ -1837,10 +1843,10 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G5" s="1">
         <v>39263</v>
@@ -1854,7 +1860,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -1883,7 +1889,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -1912,10 +1918,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1924,10 +1930,10 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G8" s="1">
         <v>39263</v>
@@ -1941,10 +1947,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1953,10 +1959,10 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1">
         <v>39263</v>
@@ -1970,10 +1976,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1982,10 +1988,10 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G10" s="1">
         <v>39263</v>
@@ -1999,10 +2005,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2011,10 +2017,10 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G11" s="1">
         <v>39263</v>
@@ -2028,22 +2034,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G12" s="1">
         <v>39263</v>
@@ -2057,28 +2063,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G13" s="1">
         <v>39263</v>
       </c>
       <c r="H13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -2131,10 +2137,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2143,10 +2149,10 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G2" s="1">
         <v>39141</v>
@@ -2160,22 +2166,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G3" s="1">
         <v>39141</v>
@@ -2189,22 +2195,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G4" s="1">
         <v>39141</v>
@@ -2218,10 +2224,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2230,10 +2236,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5" s="1">
         <v>39141</v>
@@ -2247,10 +2253,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2259,16 +2265,16 @@
         <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G6" s="1">
         <v>39141</v>
       </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -2276,19 +2282,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -2305,28 +2311,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G8" s="1">
         <v>39141</v>
       </c>
       <c r="H8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>

--- a/Files/Vaccine_August 3, 2006.xlsx
+++ b/Files/Vaccine_August 3, 2006.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">$21.44</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV*</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV</t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -457,8 +457,7 @@
     <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose Preservative-free</t>
+    <t xml:space="preserve">Fluzone Pediatric dose Preservative-free</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose syringes</t>
